--- a/grades.xlsx
+++ b/grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baras\Documents\MSE\phys1320\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7F5BE-C42B-4A4A-BD1C-F4B07E8E2FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3200BA79-C9AF-42C7-A822-329ED164DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="255" windowWidth="20670" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="1830" windowWidth="19470" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -2096,7 +2096,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2279,19 +2279,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2">
         <v>31.697500000000002</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <v>47</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>19.0185</v>
+        <v>37.8185</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2897,14 +2901,14 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>D2+17</f>
+        <f t="shared" ref="H2:H19" si="0">D2+17</f>
         <v>17</v>
       </c>
       <c r="I2" s="3">
         <v>39.907499999999999</v>
       </c>
       <c r="J2" s="2">
-        <f>2*(0.2*G2+0.3*I2)</f>
+        <f t="shared" ref="J2:J19" si="1">2*(0.2*G2+0.3*I2)</f>
         <v>23.944499999999998</v>
       </c>
     </row>
@@ -2923,14 +2927,14 @@
         <v>50</v>
       </c>
       <c r="H3" s="2">
-        <f>D3+17</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I3" s="2">
         <v>88.679999999999993</v>
       </c>
       <c r="J3" s="2">
-        <f>2*(0.2*G3+0.3*I3)</f>
+        <f t="shared" si="1"/>
         <v>73.207999999999998</v>
       </c>
     </row>
@@ -2949,14 +2953,14 @@
         <v>62</v>
       </c>
       <c r="H4" s="2">
-        <f>D4+17</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="I4" s="2">
         <v>89.504999999999995</v>
       </c>
       <c r="J4" s="2">
-        <f>2*(0.2*G4+0.3*I4)</f>
+        <f t="shared" si="1"/>
         <v>78.503</v>
       </c>
     </row>
@@ -2975,14 +2979,14 @@
         <v>72</v>
       </c>
       <c r="H5" s="2">
-        <f>D5+17</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="I5" s="2">
         <v>56.185000000000002</v>
       </c>
       <c r="J5" s="2">
-        <f>2*(0.2*G5+0.3*I5)</f>
+        <f t="shared" si="1"/>
         <v>62.510999999999996</v>
       </c>
     </row>
@@ -3001,14 +3005,14 @@
         <v>76</v>
       </c>
       <c r="H6" s="2">
-        <f>D6+17</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="I6" s="2">
         <v>83.195000000000007</v>
       </c>
       <c r="J6" s="2">
-        <f>2*(0.2*G6+0.3*I6)</f>
+        <f t="shared" si="1"/>
         <v>80.317000000000007</v>
       </c>
     </row>
@@ -3027,14 +3031,14 @@
         <v>78</v>
       </c>
       <c r="H7" s="2">
-        <f>D7+17</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="I7" s="2">
         <v>81.997499999999988</v>
       </c>
       <c r="J7" s="2">
-        <f>2*(0.2*G7+0.3*I7)</f>
+        <f t="shared" si="1"/>
         <v>80.398499999999984</v>
       </c>
     </row>
@@ -3053,14 +3057,14 @@
         <v>82</v>
       </c>
       <c r="H8" s="2">
-        <f>D8+17</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I8" s="2">
         <v>82.279999999999987</v>
       </c>
       <c r="J8" s="2">
-        <f>2*(0.2*G8+0.3*I8)</f>
+        <f t="shared" si="1"/>
         <v>82.167999999999992</v>
       </c>
     </row>
@@ -3079,14 +3083,14 @@
         <v>82</v>
       </c>
       <c r="H9" s="2">
-        <f>D9+17</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I9" s="2">
         <v>93.182500000000005</v>
       </c>
       <c r="J9" s="2">
-        <f>2*(0.2*G9+0.3*I9)</f>
+        <f t="shared" si="1"/>
         <v>88.709500000000006</v>
       </c>
     </row>
@@ -3105,14 +3109,14 @@
         <v>87</v>
       </c>
       <c r="H10" s="2">
-        <f>D10+17</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="I10" s="2">
         <v>66.09</v>
       </c>
       <c r="J10" s="2">
-        <f>2*(0.2*G10+0.3*I10)</f>
+        <f t="shared" si="1"/>
         <v>74.454000000000008</v>
       </c>
     </row>
@@ -3131,14 +3135,14 @@
         <v>89</v>
       </c>
       <c r="H11" s="2">
-        <f>D11+17</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="I11" s="2">
         <v>23.107500000000002</v>
       </c>
       <c r="J11" s="2">
-        <f>2*(0.2*G11+0.3*I11)</f>
+        <f t="shared" si="1"/>
         <v>49.464500000000001</v>
       </c>
     </row>
@@ -3157,14 +3161,14 @@
         <v>90</v>
       </c>
       <c r="H12" s="2">
-        <f>D12+17</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I12" s="2">
         <v>59.462500000000006</v>
       </c>
       <c r="J12" s="2">
-        <f>2*(0.2*G12+0.3*I12)</f>
+        <f t="shared" si="1"/>
         <v>71.677500000000009</v>
       </c>
     </row>
@@ -3183,14 +3187,14 @@
         <v>90</v>
       </c>
       <c r="H13" s="2">
-        <f>D13+17</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I13" s="2">
         <v>89.452500000000001</v>
       </c>
       <c r="J13" s="2">
-        <f>2*(0.2*G13+0.3*I13)</f>
+        <f t="shared" si="1"/>
         <v>89.671500000000009</v>
       </c>
     </row>
@@ -3209,14 +3213,14 @@
         <v>91</v>
       </c>
       <c r="H14" s="2">
-        <f>D14+17</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="I14" s="2">
         <v>97.605000000000004</v>
       </c>
       <c r="J14" s="2">
-        <f>2*(0.2*G14+0.3*I14)</f>
+        <f t="shared" si="1"/>
         <v>94.962999999999994</v>
       </c>
     </row>
@@ -3235,14 +3239,14 @@
         <v>91</v>
       </c>
       <c r="H15" s="2">
-        <f>D15+17</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="I15" s="2">
         <v>93.447499999999991</v>
       </c>
       <c r="J15" s="2">
-        <f>2*(0.2*G15+0.3*I15)</f>
+        <f t="shared" si="1"/>
         <v>92.468499999999992</v>
       </c>
     </row>
@@ -3261,14 +3265,14 @@
         <v>91</v>
       </c>
       <c r="H16" s="2">
-        <f>D16+17</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="I16" s="2">
         <v>57.617500000000007</v>
       </c>
       <c r="J16" s="2">
-        <f>2*(0.2*G16+0.3*I16)</f>
+        <f t="shared" si="1"/>
         <v>70.970500000000001</v>
       </c>
     </row>
@@ -3287,14 +3291,14 @@
         <v>96</v>
       </c>
       <c r="H17" s="2">
-        <f>D17+17</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="I17" s="2">
         <v>43.77</v>
       </c>
       <c r="J17" s="2">
-        <f>2*(0.2*G17+0.3*I17)</f>
+        <f t="shared" si="1"/>
         <v>64.662000000000006</v>
       </c>
     </row>
@@ -3309,14 +3313,14 @@
       <c r="F18" s="3"/>
       <c r="G18" s="9"/>
       <c r="H18" s="2">
-        <f>D18+17</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I18" s="2">
         <v>31.697500000000002</v>
       </c>
       <c r="J18" s="2">
-        <f>2*(0.2*G18+0.3*I18)</f>
+        <f t="shared" si="1"/>
         <v>19.0185</v>
       </c>
     </row>
@@ -3331,14 +3335,14 @@
       <c r="F19" s="3"/>
       <c r="G19" s="9"/>
       <c r="H19" s="2">
-        <f>D19+17</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I19" s="2">
         <v>19.515000000000001</v>
       </c>
       <c r="J19" s="2">
-        <f>2*(0.2*G19+0.3*I19)</f>
+        <f t="shared" si="1"/>
         <v>11.709</v>
       </c>
     </row>
